--- a/maskingDemoConditions.xlsx
+++ b/maskingDemoConditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samg\Documents\Psychopy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35BBEF64-5319-4A27-9ED4-7350EF19603B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27AED7C-C1BE-4083-A9CC-6738CB650234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="8260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -580,7 +580,7 @@
         <v>0.4</v>
       </c>
       <c r="D5">
-        <v>1.7000000000000001E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -594,7 +594,7 @@
         <v>0.4</v>
       </c>
       <c r="D6">
-        <v>3.3000000000000002E-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -608,7 +608,7 @@
         <v>0.4</v>
       </c>
       <c r="D7">
-        <v>0.05</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -622,7 +622,7 @@
         <v>0.4</v>
       </c>
       <c r="D8">
-        <v>6.7000000000000004E-2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -636,7 +636,7 @@
         <v>0.4</v>
       </c>
       <c r="D9">
-        <v>8.3000000000000004E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -650,7 +650,7 @@
         <v>0.4</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -664,7 +664,7 @@
         <v>0.4</v>
       </c>
       <c r="D11">
-        <v>1.7000000000000001E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -678,7 +678,7 @@
         <v>0.4</v>
       </c>
       <c r="D12">
-        <v>3.3000000000000002E-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -692,7 +692,7 @@
         <v>0.4</v>
       </c>
       <c r="D13">
-        <v>0.05</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -706,7 +706,7 @@
         <v>0.4</v>
       </c>
       <c r="D14">
-        <v>6.7000000000000004E-2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -720,7 +720,7 @@
         <v>0.4</v>
       </c>
       <c r="D15">
-        <v>8.3000000000000004E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -734,7 +734,7 @@
         <v>0.4</v>
       </c>
       <c r="D16">
-        <v>0.1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -750,12 +750,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9F5CAB0486A994CA2C3B13E059EF2AE" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8645ec4a60d0c8c7009d2d6675847a91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="636d7205651659ec4fcda0bcbde9384b">
     <xsd:element name="properties">
@@ -869,6 +863,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -879,21 +879,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF1C174-6AC6-4774-A736-3226A12360E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -909,6 +894,21 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
   <ds:schemaRefs>

--- a/maskingDemoConditions.xlsx
+++ b/maskingDemoConditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samg\Documents\Psychopy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27AED7C-C1BE-4083-A9CC-6738CB650234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5835B7F-DB09-4BE9-A505-7602C2683F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="8260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{E5458DB3-6A1D-4BE3-8E91-52D53E0F1609}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{AC6C1095-C0F7-4D34-964C-4CA4AF4B516B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t xml:space="preserve">Values
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t>Each iteration of this loop, a different one of these values will be chosen. This will be the value of the variable named above.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{E5458DB3-6A1D-4BE3-8E91-52D53E0F1609}">
       <text>
         <r>
           <rPr>
@@ -501,11 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -527,7 +553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0.4</v>
       </c>
@@ -541,7 +567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0.4</v>
       </c>
@@ -557,13 +583,13 @@
     </row>
     <row r="4" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -574,27 +600,27 @@
         <v>0.4</v>
       </c>
       <c r="B5">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="C5">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0.4</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -608,7 +634,7 @@
         <v>0.4</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -622,7 +648,7 @@
         <v>0.4</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -636,7 +662,7 @@
         <v>0.4</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -650,7 +676,7 @@
         <v>0.4</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -658,13 +684,13 @@
         <v>0.4</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="C11">
         <v>0.4</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -672,13 +698,13 @@
         <v>0.4</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="C12">
         <v>0.4</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -692,7 +718,7 @@
         <v>0.4</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -706,7 +732,7 @@
         <v>0.4</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -720,7 +746,7 @@
         <v>0.4</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -734,12 +760,40 @@
         <v>0.4</v>
       </c>
       <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17">
+        <v>0.4</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B18">
+        <v>0.5</v>
+      </c>
+      <c r="C18">
+        <v>0.4</v>
+      </c>
+      <c r="D18">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid variable name" error="Variable names need to start with a letter or an underscore (_), followed by only letters, numbers and underscores." sqref="A1:XFD1" xr:uid="{7CD88A1A-7D71-4B66-8FF3-B42FC0AD4334}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid variable name" error="Variable names need to start with a letter or an underscore (_), followed by only letters, numbers and underscores." sqref="E1:XFD3 A1:D1" xr:uid="{7CD88A1A-7D71-4B66-8FF3-B42FC0AD4334}">
       <formula1>AND(ISNUMBER(SUMPRODUCT(SEARCH(MID(A1,ROW(INDIRECT("1:"&amp;LEN(A1))),1),"0123456789abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ_"))),ISNUMBER(SEARCH(LEFT(A1,1),"abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ_")),NOT(ISNUMBER(SEARCH("~*",A1))))</formula1>
     </dataValidation>
   </dataValidations>
@@ -750,6 +804,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9F5CAB0486A994CA2C3B13E059EF2AE" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8645ec4a60d0c8c7009d2d6675847a91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="636d7205651659ec4fcda0bcbde9384b">
     <xsd:element name="properties">
@@ -863,12 +923,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -879,6 +933,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF1C174-6AC6-4774-A736-3226A12360E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -894,21 +963,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
   <ds:schemaRefs>
